--- a/i2o_Sound_United_Automation/src/main/java/com/i2o/Testdata_Excel/Testscenarios.xlsx
+++ b/i2o_Sound_United_Automation/src/main/java/com/i2o/Testdata_Excel/Testscenarios.xlsx
@@ -1,25 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ankit-WorkArea\SeleniumWorkSpace\i2o_Sound_United_Auomation\src\main\java\com\i2o\Testdata_Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7452C979-5E2F-439E-B712-33477F722A34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{48666ED5-D22C-4F49-B6BA-FC80F206F077}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AEAE7AD1-CDF8-4FC2-A0A4-367A97CB5BCB}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="20790" windowHeight="11820" activeTab="1" xr2:uid="{AEAE7AD1-CDF8-4FC2-A0A4-367A97CB5BCB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Homepage Test" sheetId="1" r:id="rId1"/>
-    <sheet name="PerformanceMetrics-Scenarios" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Automation Test Planning " sheetId="5" r:id="rId1"/>
+    <sheet name="HompeageTest" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId3"/>
+    <sheet name="Homepage Test" sheetId="1" r:id="rId4"/>
+    <sheet name="PerformanceMetrics-Scenarios" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <oleSize ref="A1:G11"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="95">
   <si>
     <t>TestID</t>
   </si>
@@ -161,18 +159,6 @@
     <t>VC DATA</t>
   </si>
   <si>
-    <t>9348495</t>
-  </si>
-  <si>
-    <t>3117500</t>
-  </si>
-  <si>
-    <t>4336369</t>
-  </si>
-  <si>
-    <t>8606620</t>
-  </si>
-  <si>
     <t>Homepage</t>
   </si>
   <si>
@@ -207,12 +193,154 @@
   </si>
   <si>
     <t>i2o App</t>
+  </si>
+  <si>
+    <t>Prestage Value</t>
+  </si>
+  <si>
+    <t>Mart Value</t>
+  </si>
+  <si>
+    <t>{f0_=417649.6200000001, start_date=2020-04-19}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare last weeks cogs in Prestage and Premart
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare last weeks Units in Prestage and Premart
+ </t>
+  </si>
+  <si>
+    <t>Regression Suite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanity </t>
+  </si>
+  <si>
+    <t>purpose</t>
+  </si>
+  <si>
+    <t>tier of test</t>
+  </si>
+  <si>
+    <t>All features</t>
+  </si>
+  <si>
+    <t>UI and BQ</t>
+  </si>
+  <si>
+    <t>More on BQ</t>
+  </si>
+  <si>
+    <t>Weekly data load testing for every customer
+API testing for donuts</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BQ sql can be run to identify data gaps and then sql debug scripts to find the soucre of erros
+</t>
+  </si>
+  <si>
+    <t>Need to check with manjot whhat asins we have picked</t>
+  </si>
+  <si>
+    <t>100% Automation</t>
+  </si>
+  <si>
+    <t>May Not be 100 % automation</t>
+  </si>
+  <si>
+    <t>CI Automated test Suite</t>
+  </si>
+  <si>
+    <t>It runs every time when BQ changed made ti ensure no regression happen</t>
+  </si>
+  <si>
+    <t>BQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.establish base line input data sets
+2. Adding synthetic data for data conditions not there in the data set
+3.Establishing a framework 
+a.copy data data sets to base lines
+b.compare output dataset with base line dataset
+c.present diff between the datasets in a consumable way
+</t>
+  </si>
+  <si>
+    <t>Unit testing</t>
+  </si>
+  <si>
+    <t>developer to write and verify atomic functionality</t>
+  </si>
+  <si>
+    <t>All(UI,Mid tier , BQ, scrapping)</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>soucre sql</t>
+  </si>
+  <si>
+    <t>dst sql</t>
+  </si>
+  <si>
+    <t>source sql parameter</t>
+  </si>
+  <si>
+    <t>Dest sql parameter</t>
+  </si>
+  <si>
+    <t>SELECT sum(cast(A.Shipped_COGS as float64)) as cogsprestage FROM CC_I2O_DATA_PRE_STG.vc_sales_diagnostics_sourcing_detail A inner join CC_I2O_DATA_REPO.final_product_master_filtered B on A.ASIN =B.product_code    where  Reporting_Range ='Weekly' and B.org_type ='Amazon_1PP'  group by start_date order by  start_date desc</t>
+  </si>
+  <si>
+    <t>Reporting range=weekly</t>
+  </si>
+  <si>
+    <t>1.Need to identify all sanity testcase first and review
+2.timeline</t>
+  </si>
+  <si>
+    <t>Action pointers</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Sanity has wider covergare than DISC
+Disc is focused on souce data ingested correctly
+sanity test will verify the trasfomation of data is correct 
+Disc will focus on random asin from Top 10
+sanity will cover all asins from product master</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>Test type</t>
+  </si>
+  <si>
+    <t>Manual/Automated</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -244,7 +372,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,6 +394,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,7 +432,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -336,6 +470,42 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -654,25 +824,336 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6B6839-672F-4435-BC28-D739F0C70F87}">
-  <dimension ref="A1:T12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B451AA4D-B73D-4203-BFA6-A27E147AA8EF}">
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="45" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.42578125" style="9" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="13" style="11" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.28515625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="11" width="15.28515625" style="10" customWidth="1"/>
-    <col min="12" max="20" width="9.140625" style="1"/>
-    <col min="21" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="15" width="16.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="15" width="42.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="15" width="14.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="15" width="39.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="15" width="20.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="15" width="20.7109375" collapsed="true"/>
+    <col min="7" max="7" style="15" width="9.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="15" width="16.0" collapsed="true"/>
+    <col min="9" max="16384" style="15" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+    </row>
+    <row r="3" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B60F60-13C2-4CDB-87DC-17382E18E862}">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="10" width="6.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="10" width="10.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="10" width="29.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="10" width="14.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="22" width="44.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="22" width="24.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="23" width="14.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="21" width="14.5703125" collapsed="true"/>
+    <col min="9" max="16384" style="10" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1234785.24</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1248977.2400000005</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-14192.0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C3" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7587.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7637.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-50.0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C4" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="n">
+        <v>85.61270142180105</v>
+      </c>
+      <c r="F4" t="n">
+        <v>85.61270142180105</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C5" s="24"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="25"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C7" s="25"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C8" s="24"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C9" s="25"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C10" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF58BAC-89A8-40A0-88A3-67EF0E6429E5}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="14" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="14" width="58.42578125" collapsed="true"/>
+    <col min="3" max="3" style="14" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="14" width="23.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="14" width="19.85546875" collapsed="true"/>
+    <col min="6" max="16384" style="14" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6B6839-672F-4435-BC28-D739F0C70F87}">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="2" width="7.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="45.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="9" width="46.28515625" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" style="11" width="13.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="10" width="15.28515625" collapsed="true"/>
+    <col min="9" max="11" customWidth="true" style="10" width="15.28515625" collapsed="true"/>
+    <col min="12" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -692,7 +1173,7 @@
         <v>40</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>38</v>
@@ -709,16 +1190,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F2"/>
       <c r="G2"/>
@@ -732,17 +1213,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
-        <v>42</v>
-      </c>
+      <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
@@ -755,17 +1234,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
-        <v>43</v>
-      </c>
+      <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
@@ -778,17 +1255,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
+      <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
@@ -801,17 +1276,15 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
+      <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
@@ -824,10 +1297,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -838,10 +1311,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -852,10 +1325,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -866,10 +1339,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -880,10 +1353,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
@@ -901,26 +1374,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF0036D-34FA-4A5D-82A8-C0B9B71946B4}">
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="38.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="13.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="7.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="38.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="13.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="14.85546875" collapsed="true"/>
+    <col min="9" max="10" bestFit="true" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
+    <col min="11" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1032,10 +1505,10 @@
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="1" t="s">
         <v>30</v>
       </c>
@@ -1094,10 +1567,10 @@
       <c r="E6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="14"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="3" t="s">
         <v>32</v>
       </c>
@@ -1285,10 +1758,10 @@
       <c r="E15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="14"/>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -1329,10 +1802,10 @@
       <c r="E17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="14"/>
+      <c r="G17" s="26"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -1347,10 +1820,10 @@
       <c r="E18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="14"/>
+      <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -1365,8 +1838,8 @@
       <c r="E19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -1536,21 +2009,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B60F60-13C2-4CDB-87DC-17382E18E862}">
-  <dimension ref="F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="27" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>